--- a/Archivos Excel/PedidoCubrebocas.xlsx
+++ b/Archivos Excel/PedidoCubrebocas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CapacitacionDesarrollo\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C407FBD-6DBE-436F-8C3B-61573F433F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C0B88B-31E1-4D30-91C5-7C970F6238C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{90BB8E3A-4FC0-474B-841C-F74D67658117}"/>
   </bookViews>
@@ -76,10 +76,10 @@
     <t>KN95 SOLICITADOS: 9</t>
   </si>
   <si>
-    <t xml:space="preserve"> 24/05/2022</t>
+    <t>ENTREGA #57</t>
   </si>
   <si>
-    <t>ENTREGA #55</t>
+    <t xml:space="preserve"> 07/06/2022</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:Q202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:M15"/>
+      <selection activeCell="A8" sqref="A8:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
@@ -1153,7 +1153,7 @@
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
       <c r="K6" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
@@ -5514,21 +5514,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C28B3CE981611E49BC06EED068CCCDFE" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="677a95ca122ba7ea72b2707ac7d9136f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d8b2613-df43-4d02-957a-bce6556ef50e" xmlns:ns4="412220fc-87ed-406b-9b0b-4dfdb61f8c94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25d58011d14c1f3b0e6cde9a738013f2" ns3:_="" ns4:_="">
     <xsd:import namespace="6d8b2613-df43-4d02-957a-bce6556ef50e"/>
@@ -5751,7 +5736,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04882705-280B-455D-A9D4-591563F6D7D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d8b2613-df43-4d02-957a-bce6556ef50e"/>
+    <ds:schemaRef ds:uri="412220fc-87ed-406b-9b0b-4dfdb61f8c94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70E9FD40-9152-4915-A88F-15DCDD2FA5AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5768,29 +5787,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99C41652-CB16-4B61-9080-5F90C37F8F41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04882705-280B-455D-A9D4-591563F6D7D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6d8b2613-df43-4d02-957a-bce6556ef50e"/>
-    <ds:schemaRef ds:uri="412220fc-87ed-406b-9b0b-4dfdb61f8c94"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>